--- a/data files/testdata_pzn.xlsx
+++ b/data files/testdata_pzn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinji\Desktop\Data Science\Programming Projects\webscrapy\data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C50B3E-3E67-43D6-BA01-F27F5E3B100A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA91665-DC2F-4FAE-A246-551774ECF7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
